--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3746739.03318974</v>
+        <v>3850150.76915382</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>243165.4780498526</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7419187.842566053</v>
+        <v>7384158.121293297</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>347.3335962273653</v>
+        <v>97.98497099623856</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -829,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>20.45352712646452</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>194.3011557205936</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>162.0216793824569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>99.59933623926882</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>196.9899243971805</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1135,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>319.2827961845677</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>151.9440011798694</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>56.75574343264645</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>38.12819374426132</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.5188249813913</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1771,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1856,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2011,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>53.30076123484837</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>140.9357387834172</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2248,13 +2250,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>32.0515855939262</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,16 +2298,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>84.87800743369236</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51.35059460820207</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>23.62554568141394</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.272891771006</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695538</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576162</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>3.006892987834117</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>159.2661870898838</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>59.44001103519365</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>23.41986852521065</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>121.136400530892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>262.2383508445513</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3317,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>155.547332689898</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>227.8529958317883</v>
+        <v>124.8808320771208</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898976</v>
+        <v>44.95889092250177</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972048</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>155.5473326898976</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>124.330825526173</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308915</v>
+        <v>53.26309598425066</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>156.7416385096049</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>227.8529958317883</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>194.3000058600551</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4186,22 +4188,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>177.1006680594869</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>117.4665281367395</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1582.86133602681</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985468</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649822</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2788.565186649822</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2788.565186649822</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y2" t="n">
-        <v>2398.42585467401</v>
+        <v>1681.836054204829</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="C4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="D4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4483,55 +4485,55 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>1906.634419677923</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1906.634419677923</v>
       </c>
       <c r="T4" t="n">
-        <v>1449.514413015681</v>
+        <v>1906.634419677923</v>
       </c>
       <c r="U4" t="n">
-        <v>1160.411546141325</v>
+        <v>1617.531552803567</v>
       </c>
       <c r="V4" t="n">
-        <v>905.7270579354381</v>
+        <v>1362.84706459768</v>
       </c>
       <c r="W4" t="n">
-        <v>905.7270579354381</v>
+        <v>1073.429894560719</v>
       </c>
       <c r="X4" t="n">
-        <v>677.7375070374208</v>
+        <v>845.4403436627018</v>
       </c>
       <c r="Y4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810559</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2866.097597267229</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2513.328941997115</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X5" t="n">
-        <v>2139.863183736035</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y5" t="n">
-        <v>2139.863183736035</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4746,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4761,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271513</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y7" t="n">
-        <v>142.0249360836212</v>
+        <v>163.8377936138381</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1617.939223126803</v>
+        <v>2011.826014609888</v>
       </c>
       <c r="C8" t="n">
-        <v>1617.939223126803</v>
+        <v>1642.863497669477</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3061.836364065689</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2730.773476722119</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2378.004821452004</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X8" t="n">
-        <v>2004.539063190924</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="Y8" t="n">
-        <v>2004.539063190924</v>
+        <v>2398.42585467401</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>553.2677753977071</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>384.3315924698002</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>234.2149530574644</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1607.264879658441</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1318.162012784085</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1063.477524578198</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>774.0603545412372</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>774.0603545412372</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y10" t="n">
-        <v>553.2677753977071</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5273,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5296,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474262</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>297.8113689946113</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>130.6152697094912</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5555,7 +5557,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,28 +5594,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>738.7889117913853</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1366.386875345992</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1918.296605585279</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.3843576263199</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C19" t="n">
-        <v>680.448174698413</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D19" t="n">
-        <v>530.3315352860773</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E19" t="n">
-        <v>382.4184417036842</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="F19" t="n">
-        <v>235.5284942057738</v>
+        <v>229.7425191625314</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1251.82540160009</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1031.03282245656</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5770,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>784.5811134804959</v>
+        <v>989.3306680894883</v>
       </c>
       <c r="C22" t="n">
-        <v>615.644930552589</v>
+        <v>820.3944851615814</v>
       </c>
       <c r="D22" t="n">
-        <v>465.5282911402533</v>
+        <v>670.2778457492457</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>522.3647521668526</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>375.4748046689422</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>208.2787053838221</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000583</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W22" t="n">
-        <v>1415.011708352283</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X22" t="n">
-        <v>1187.022157454266</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y22" t="n">
-        <v>966.2295783107356</v>
+        <v>1170.979132919728</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5977,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6075,19 +6077,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>931.4710609784063</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3403484614387</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597619</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1816.58614405608</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6446,34 +6448,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,16 +6484,16 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466572</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>377.6556127449245</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,34 +6688,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150028</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942659</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="35">
@@ -6929,55 +6931,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>1802.364528928006</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2354.274259167293</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.798285518751</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400516</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7172,10 +7174,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2206.395003844405</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,25 +7490,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>228.9331431646415</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1540.888753373307</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>1540.888753373307</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2092.798483612594</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319328</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656822</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,13 +7657,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>562.8579153358621</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.183521551621</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1655.562009178173</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>2283.159972732779</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7834,19 +7836,19 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.315625093766</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
         <v>1280.315625093766</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23413,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.31315520054596</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23659,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>145.6085800303783</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>44.8352157236614</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23899,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>112.2233770574205</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>84.77391660561995</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24136,13 +24138,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>108.2431272522977</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,16 +24186,16 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>201.6449909028987</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>128.4813855737352</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>122.8084169651552</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24604,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>126.9182872993604</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>86.99395161137552</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>143.8269525734172</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25324,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>127.2568112467072</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>134.8730892594355</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25558,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>92.15795203868058</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>75.03697526434109</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>646676.4190500291</v>
+        <v>646676.419050029</v>
       </c>
     </row>
     <row r="3">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>646676.4190500291</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.6621649642</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.725617676</v>
+        <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176758</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="E2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786967.934697756</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786967.9346977556</v>
+      </c>
+      <c r="M2" t="n">
+        <v>786967.9346977562</v>
+      </c>
+      <c r="N2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="O2" t="n">
         <v>786967.9346977555</v>
       </c>
-      <c r="F2" t="n">
+      <c r="P2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786967.9346977557</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786967.934697756</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="L2" t="n">
-        <v>800515.7256176771</v>
-      </c>
-      <c r="M2" t="n">
-        <v>800515.725617677</v>
-      </c>
-      <c r="N2" t="n">
-        <v>800515.725617676</v>
-      </c>
-      <c r="O2" t="n">
-        <v>800515.7256176769</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363178</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314469</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314483</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179357</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="K4" t="n">
-        <v>19157.89151488705</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="N4" t="n">
-        <v>19157.89151488699</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="O4" t="n">
-        <v>19157.89151488698</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26494,19 +26496,19 @@
         <v>101122.5298239071</v>
       </c>
       <c r="K5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="L5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="M5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>103164.1158539154</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726517.0276944544</v>
+        <v>-726517.0276944551</v>
       </c>
       <c r="C6" t="n">
-        <v>602227.7180331376</v>
+        <v>602227.718033138</v>
       </c>
       <c r="D6" t="n">
-        <v>602227.7180331377</v>
+        <v>602227.7180331375</v>
       </c>
       <c r="E6" t="n">
-        <v>349265.9108146995</v>
+        <v>349265.9108146999</v>
       </c>
       <c r="F6" t="n">
         <v>674678.372622055</v>
       </c>
       <c r="G6" t="n">
+        <v>674678.3726220554</v>
+      </c>
+      <c r="H6" t="n">
+        <v>674678.3726220554</v>
+      </c>
+      <c r="I6" t="n">
+        <v>674678.372622055</v>
+      </c>
+      <c r="J6" t="n">
+        <v>457147.1702247779</v>
+      </c>
+      <c r="K6" t="n">
         <v>674678.3726220551</v>
       </c>
-      <c r="H6" t="n">
-        <v>674678.3726220551</v>
-      </c>
-      <c r="I6" t="n">
-        <v>674678.3726220554</v>
-      </c>
-      <c r="J6" t="n">
-        <v>457147.1702247775</v>
-      </c>
-      <c r="K6" t="n">
-        <v>658766.0002552429</v>
-      </c>
       <c r="L6" t="n">
-        <v>678193.7182488746</v>
+        <v>674678.372622055</v>
       </c>
       <c r="M6" t="n">
-        <v>593138.6903133627</v>
+        <v>589623.3446865438</v>
       </c>
       <c r="N6" t="n">
-        <v>678193.7182488737</v>
+        <v>674678.3726220552</v>
       </c>
       <c r="O6" t="n">
-        <v>678193.7182488744</v>
+        <v>674678.3726220549</v>
       </c>
       <c r="P6" t="n">
-        <v>674678.3726220551</v>
+        <v>674678.372622055</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>35.40024543611531</v>
+        <v>284.748870667242</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27391,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27549,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>68.47862554358277</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>25.24779355557561</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>220.7121622810237</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>307.2767095024426</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0742887270139</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>21.5947289549143</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27855,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>35.40024543611526</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>99.05117077903253</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>123.0762367492908</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>181.4207555319079</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28087,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
     </row>
     <row r="12">
@@ -28324,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>8.185452315956353e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29272,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.591615728102624e-12</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>-8.185452315956353e-14</v>
       </c>
     </row>
     <row r="27">
@@ -29667,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30052,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>368.6279838366855</v>
+        <v>526.2989357561996</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31861,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,16 +32077,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,19 +32314,19 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>689.3300812557329</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32335,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>316.2462973459355</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,19 +32551,19 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32573,7 +32575,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32795,22 +32797,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>354.9153144485699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33025,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>718.5832682008314</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33260,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L30" t="n">
-        <v>302.3396059822671</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,13 +33502,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>211.0222436375122</v>
       </c>
       <c r="L33" t="n">
-        <v>279.2419622547062</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33518,10 +33520,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>440.316328560036</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
@@ -33752,13 +33754,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>297.7596336167232</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33894,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33913,7 +33915,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33968,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>447.1326187913569</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,7 +34210,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>263.3189197138078</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,19 +34219,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>615.038144437878</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34375,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34445,10 +34447,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34457,10 +34459,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>381.285518532932</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>237.2862717533522</v>
+        <v>394.9572236728663</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35509,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>557.9883691723996</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35983,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.264523259914</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36221,7 +36223,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,7 +36357,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
@@ -36443,22 +36445,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>220.9409070342396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>587.2415561174981</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L30" t="n">
-        <v>163.7852262023929</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,13 +37150,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="L33" t="n">
-        <v>140.6875824748321</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37166,10 +37168,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>302.474889585677</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37400,13 +37402,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>163.785226202393</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37561,7 +37563,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>313.1582113770266</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,19 +37867,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>472.9041105158597</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549931</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986647</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38093,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38105,10 +38107,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>249.9438064495987</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3850150.76915382</v>
+        <v>3846138.159139827</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97.98497099623856</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>245.3585659923583</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734116405</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>20.45352712646452</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
@@ -879,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>197.8576937463066</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>229.8934112337072</v>
       </c>
       <c r="F5" t="n">
-        <v>99.59933623926882</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>31.83188548727832</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>196.9899243971805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>319.2827961845677</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>174.7869190180888</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.75574343264645</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695521</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.5188249813913</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>36.43062059490413</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>53.30076123484837</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>32.0515855939262</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>23.62554568141394</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2557,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.272891771006</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2566,13 +2566,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695538</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576162</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>159.2661870898838</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>59.44001103519365</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>23.41986852521065</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417122</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,10 +3480,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>124.8808320771208</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>44.95889092250177</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>53.26309598425066</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790577</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>177.1006680594869</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,40 +4306,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1582.86133602681</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1213.898819086399</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>417.1246616985468</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060172</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794326</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450755</v>
+        <v>2713.947741064286</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180641</v>
+        <v>2361.179085794172</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180641</v>
+        <v>1987.713327533092</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204829</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4406,13 +4406,13 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
         <v>765.1517452158137</v>
@@ -4421,16 +4421,16 @@
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4442,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4451,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
         <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4506,34 +4506,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.634419677923</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1906.634419677923</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T4" t="n">
-        <v>1906.634419677923</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1617.531552803567</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V4" t="n">
-        <v>1362.84706459768</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.429894560719</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4403436627018</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796265</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C5" t="n">
-        <v>921.7704558796265</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="D5" t="n">
-        <v>921.7704558796265</v>
+        <v>1464.366537431293</v>
       </c>
       <c r="E5" t="n">
-        <v>921.7704558796265</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,22 +4564,22 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4588,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8377936138381</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4752,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T7" t="n">
         <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621301</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="Y7" t="n">
-        <v>163.8377936138381</v>
+        <v>848.0708164780106</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2011.826014609888</v>
+        <v>1381.278680221568</v>
       </c>
       <c r="C8" t="n">
-        <v>1642.863497669477</v>
+        <v>1012.316163281156</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>654.0504646744059</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>243.0645598847984</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X8" t="n">
-        <v>2788.565186649822</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y8" t="n">
-        <v>2398.42585467401</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>533.4780323548191</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C10" t="n">
-        <v>364.5418494269122</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D10" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y10" t="n">
-        <v>590.8070661251691</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="11">
@@ -5029,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>530.3315352860773</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>530.3315352860773</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5269,25 +5269,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946113</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>130.6152697094912</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>130.6152697094912</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="17">
@@ -5497,25 +5497,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5524,25 +5524,25 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.7084350851671</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>527.7722521572603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D19" t="n">
-        <v>377.6556127449245</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>229.7425191625314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>989.3306680894883</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>820.3944851615814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>670.2778457492457</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>522.3647521668526</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>375.4748046689422</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>208.2787053838221</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1170.979132919728</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,25 +5986,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>2757.723669558405</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>2757.723669558405</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,64 +6214,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1816.58614405608</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1561.901655850193</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,28 +6536,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>527.7722521572603</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>377.6556127449245</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,10 +6712,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>315.9123021921482</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6916,70 +6916,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M36" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>931.4710609784063</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>762.5348780504994</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>612.4182386381636</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>464.5051450557705</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1653.302830625878</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1363.885660588917</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1135.8961096909</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>915.1035305473698</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>228.9331431646415</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358621</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>923.4916164683283</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>754.5554335404214</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>604.4387941280856</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>456.5257005456925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,25 +7636,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-1.876970801006905e-12</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.31315520054596</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>44.8352157236614</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>112.2233770574205</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>108.2431272522977</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>122.8084169651552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,19 +24603,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>126.9182872993604</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>86.99395161137552</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>143.8269525734172</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,10 +25368,10 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>127.2568112467072</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>134.8730892594355</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>92.15795203868058</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823054</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,16 +26076,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>75.03697526434109</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>646676.4190500291</v>
+        <v>646676.419050029</v>
       </c>
     </row>
     <row r="4">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635907.6621649642</v>
+        <v>635907.6621649641</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>800515.7256176759</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176756</v>
+        <v>800515.7256176755</v>
       </c>
       <c r="E2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="F2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="H2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="I2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786967.934697756</v>
       </c>
       <c r="K2" t="n">
         <v>786967.9346977557</v>
       </c>
       <c r="L2" t="n">
+        <v>786967.9346977561</v>
+      </c>
+      <c r="M2" t="n">
         <v>786967.9346977556</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786967.9346977562</v>
       </c>
       <c r="N2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.9346977555</v>
+        <v>786967.934697756</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977556</v>
+        <v>786967.9346977558</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314469</v>
+        <v>90354.06702314476</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.06702314476</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.06702314477</v>
       </c>
-      <c r="D4" t="n">
-        <v>90354.0670231448</v>
-      </c>
       <c r="E4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
         <v>11167.03225179351</v>
@@ -26441,16 +26441,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
-        <v>11167.03225179354</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="K4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179357</v>
+        <v>11167.03225179348</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726517.0276944551</v>
+        <v>-726517.027694455</v>
       </c>
       <c r="C6" t="n">
-        <v>602227.718033138</v>
+        <v>602227.7180331376</v>
       </c>
       <c r="D6" t="n">
-        <v>602227.7180331375</v>
+        <v>602227.7180331376</v>
       </c>
       <c r="E6" t="n">
-        <v>349265.9108146999</v>
+        <v>348918.5315603431</v>
       </c>
       <c r="F6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.993367698</v>
       </c>
       <c r="G6" t="n">
-        <v>674678.3726220554</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="H6" t="n">
-        <v>674678.3726220554</v>
+        <v>674330.9933676985</v>
       </c>
       <c r="I6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.993367698</v>
       </c>
       <c r="J6" t="n">
-        <v>457147.1702247779</v>
+        <v>456799.7909704204</v>
       </c>
       <c r="K6" t="n">
-        <v>674678.3726220551</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="L6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.9933676985</v>
       </c>
       <c r="M6" t="n">
-        <v>589623.3446865438</v>
+        <v>589275.9654321861</v>
       </c>
       <c r="N6" t="n">
-        <v>674678.3726220552</v>
+        <v>674330.9933676983</v>
       </c>
       <c r="O6" t="n">
-        <v>674678.3726220549</v>
+        <v>674330.9933676984</v>
       </c>
       <c r="P6" t="n">
-        <v>674678.372622055</v>
+        <v>674330.9933676983</v>
       </c>
     </row>
   </sheetData>
@@ -26694,10 +26694,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26740,7 +26740,7 @@
         <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>341.3068326973555</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>831.4014554022931</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.3068326973557</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>284.748870667242</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>82.39369247777657</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>68.47862554358277</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>88.66530459028445</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,13 +27621,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>152.0369588385546</v>
       </c>
       <c r="F5" t="n">
-        <v>307.2767095024426</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27776,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>254.6911128493127</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>21.5947289549143</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>35.40024543611526</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>236.1348066353647</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,10 +27915,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.0762367492908</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28326,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-8.185452315956353e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>-8.242295734817162e-13</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-8.003898693245978e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31053,31 +31053,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31126,43 +31126,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,19 +31205,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31232,13 +31232,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31852,13 +31852,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32311,28 +32311,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>689.3300812557329</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>718.5832682008314</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>211.0222436375122</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>440.316328560036</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>447.1326187913569</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>263.3189197138078</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34368,34 +34368,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>381.285518532932</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34701,28 +34701,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35500,13 +35500,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>557.9883691723996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,19 +36442,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>587.2415561174981</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,28 +36907,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.18080466315317</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>302.474889585677</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>313.1582113770266</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>136.4812930471411</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>249.9438064495987</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_17_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3846138.159139827</v>
+        <v>3847898.689442613</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7384158.121293297</v>
+        <v>7384158.121293299</v>
       </c>
     </row>
     <row r="11">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>245.3585659923583</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>274.7944255145775</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>68.85005436466994</v>
       </c>
       <c r="W4" t="n">
-        <v>197.8576937463066</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>33.38304376059015</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>229.8934112337072</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,10 +1022,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T6" t="n">
         <v>190.7165703189231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W7" t="n">
-        <v>31.83188548727832</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.7869190180888</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>273.0529551528109</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>65.44930784064577</v>
       </c>
       <c r="S16" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1897,10 +1897,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812055</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881294</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2964,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3720,7 +3720,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
-        <v>170.9457618790577</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410103</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V2" t="n">
-        <v>2713.947741064286</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W2" t="n">
-        <v>2361.179085794172</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X2" t="n">
-        <v>1987.713327533092</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="Y2" t="n">
-        <v>1987.713327533092</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
@@ -4433,28 +4433,28 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>2246.382089998689</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>2077.445907070782</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>1632.526226578143</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621301</v>
+        <v>3166.229854907437</v>
       </c>
       <c r="W4" t="n">
-        <v>680.3679798527295</v>
+        <v>2876.812684870476</v>
       </c>
       <c r="X4" t="n">
-        <v>680.3679798527295</v>
+        <v>2648.823133972459</v>
       </c>
       <c r="Y4" t="n">
-        <v>680.3679798527295</v>
+        <v>2428.030554828929</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.632236038043</v>
+        <v>1712.341567565139</v>
       </c>
       <c r="C5" t="n">
-        <v>1822.632236038043</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1464.366537431293</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2972.837166339057</v>
+        <v>2862.546497866152</v>
       </c>
       <c r="X5" t="n">
-        <v>2599.371408077977</v>
+        <v>2489.080739605072</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.232076102165</v>
+        <v>2098.941407629261</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
         <v>1617.076751502319</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621301</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>848.0708164780106</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>848.0708164780106</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221568</v>
+        <v>1491.569348694473</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281156</v>
+        <v>1122.606831754061</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744059</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="E8" t="n">
-        <v>654.0504646744059</v>
+        <v>764.3411331473105</v>
       </c>
       <c r="F8" t="n">
-        <v>243.0645598847984</v>
+        <v>353.355228357703</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3231822431035</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4825,31 +4825,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792696</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.483610522581</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.017852261502</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.87852028569</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W10" t="n">
-        <v>1722.044275313594</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>1494.054724415577</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458822</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5260,7 +5260,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,37 +5269,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2380.852671620012</v>
       </c>
       <c r="S16" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.997837274916</v>
       </c>
       <c r="T16" t="n">
-        <v>2117.354959541324</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="U16" t="n">
-        <v>1828.279732885522</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.595244679635</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1284.178074642674</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="17">
@@ -5509,40 +5509,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,16 +5749,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014779</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5977,34 +5977,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6126,16 +6126,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6147,28 +6147,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2437.724555511392</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
         <v>484.8112968429802</v>
@@ -6378,58 +6378,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6451,25 +6451,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
         <v>2206.55866301478</v>
@@ -6478,22 +6478,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,7 +6712,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6916,61 +6916,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,22 +7010,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7311,16 +7311,16 @@
         <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,40 +7332,40 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
         <v>1491.508541327549</v>
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7569,34 +7569,34 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
         <v>2024.390058741045</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-9.481304630298837e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0.9259388694759139</v>
       </c>
       <c r="S16" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
-        <v>46.45968844823054</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>646676.419050029</v>
+        <v>646676.4190500291</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>646676.419050029</v>
+        <v>646676.4190500291</v>
       </c>
     </row>
     <row r="4">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.6621649642</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>635907.6621649641</v>
+        <v>635907.6621649642</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176759</v>
+        <v>800515.7256176757</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176757</v>
+        <v>800515.7256176756</v>
       </c>
       <c r="D2" t="n">
-        <v>800515.7256176755</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="F2" t="n">
         <v>786967.9346977558</v>
       </c>
       <c r="G2" t="n">
+        <v>786967.9346977557</v>
+      </c>
+      <c r="H2" t="n">
         <v>786967.9346977558</v>
       </c>
-      <c r="H2" t="n">
-        <v>786967.9346977561</v>
-      </c>
       <c r="I2" t="n">
+        <v>786967.9346977558</v>
+      </c>
+      <c r="J2" t="n">
         <v>786967.9346977557</v>
       </c>
-      <c r="J2" t="n">
-        <v>786967.9346977556</v>
-      </c>
       <c r="K2" t="n">
-        <v>786967.9346977557</v>
+        <v>786967.9346977555</v>
       </c>
       <c r="L2" t="n">
-        <v>786967.9346977561</v>
+        <v>786967.9346977558</v>
       </c>
       <c r="M2" t="n">
         <v>786967.9346977556</v>
@@ -26352,10 +26352,10 @@
         <v>786967.9346977558</v>
       </c>
       <c r="O2" t="n">
-        <v>786967.934697756</v>
+        <v>786967.9346977561</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786967.9346977557</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.06702314476</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314477</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26441,16 +26441,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="K4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11167.03225179348</v>
       </c>
       <c r="L4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179348</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26524,46 +26524,46 @@
         <v>-726517.027694455</v>
       </c>
       <c r="C6" t="n">
-        <v>602227.7180331376</v>
+        <v>602227.7180331375</v>
       </c>
       <c r="D6" t="n">
-        <v>602227.7180331376</v>
+        <v>602227.7180331382</v>
       </c>
       <c r="E6" t="n">
-        <v>348918.5315603431</v>
+        <v>349231.1728892645</v>
       </c>
       <c r="F6" t="n">
-        <v>674330.993367698</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="G6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966195</v>
       </c>
       <c r="H6" t="n">
-        <v>674330.9933676985</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="I6" t="n">
-        <v>674330.993367698</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="J6" t="n">
-        <v>456799.7909704204</v>
+        <v>457112.4322993419</v>
       </c>
       <c r="K6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966192</v>
       </c>
       <c r="L6" t="n">
-        <v>674330.9933676985</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="M6" t="n">
-        <v>589275.9654321861</v>
+        <v>589588.6067611076</v>
       </c>
       <c r="N6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966196</v>
       </c>
       <c r="O6" t="n">
-        <v>674330.9933676984</v>
+        <v>674643.6346966198</v>
       </c>
       <c r="P6" t="n">
-        <v>674330.9933676983</v>
+        <v>674643.6346966195</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,16 +26813,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26971,7 +26971,7 @@
         <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>82.39369247777657</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>111.4435131414761</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>183.2875889591581</v>
       </c>
       <c r="W4" t="n">
-        <v>88.66530459028445</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>331.8898480104174</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>152.0369588385546</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W7" t="n">
-        <v>254.6911128493127</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1348066353647</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>21.55480923450955</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29568,7 +29568,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29997,7 +29997,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-8.003898693245978e-13</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
         <v>44.86703772844668</v>
@@ -31287,40 +31287,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31439,43 +31439,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780295</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32490,7 +32490,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
         <v>593.8732233669223</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>244.0266243181827</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
         <v>159.2338966127272</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36138,7 +36138,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,19 +36679,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,22 +37393,22 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>101.8925903961643</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
